--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,7 +5978,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:13.960368</t>
+    <t>2025-03-05 16:14:42.726877</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,13 +5978,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:42.726877</t>
+    <t>2025-03-19 12:18:09.076143</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,25 +5978,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:09.076143</t>
+    <t>2025-04-17 10:01:20.747827</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,25 +5978,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:20.747827</t>
+    <t>2025-06-27 02:17:31.376562</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,13 +5978,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:31.376562</t>
+    <t>2025-08-06 15:10:52.136813</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -5978,13 +5978,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:52.136813</t>
+    <t>2025-09-18 15:21:08.481213</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -6062,7 +6062,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:27:59.959263</t>
+    <t>2025-09-22 09:59:14.203669</t>
   </si>
   <si>
     <t>version</t>
@@ -48843,25 +48843,25 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$30</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$63</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$63</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$30</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$30</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$9</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$6</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:V1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$17</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8:AA1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$8</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -48979,7 +48979,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$6</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -49453,40 +49453,40 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$11</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$1054</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$1054</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$5</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$5</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$68</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$6</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:P1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$181</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$181</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W10:W1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$1003</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10:Z1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$68</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$6</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG10:AG1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$1054</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$1054</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -49773,10 +49773,10 @@
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$29</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$29</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$18</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
@@ -49785,13 +49785,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$8</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$86</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -50608,25 +50608,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$AU$4:''$AU$14</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$AW$4:''$AW$5</formula1>
+      <formula1>'Codelijsten'!$AW$4:$AW$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$AY$4:''$AY$86</formula1>
+      <formula1>'Codelijsten'!$AY$4:$AY$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$BA$4:''$BA$12</formula1>
+      <formula1>'Codelijsten'!$BA$4:$BA$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$BC$4:''$BC$40</formula1>
+      <formula1>'Codelijsten'!$BC$4:$BC$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$BE$4:''$BE$6</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -50644,7 +50644,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$BG$4:''$BG$86</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -51630,22 +51630,22 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$BI$4:''$BI$1003</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$BK$4:''$BK$68</formula1>
+      <formula1>'Codelijsten'!$BK$4:$BK$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$BM$4:''$BM$68</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$BO$4:''$BO$68</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC1000001">
-      <formula1>'Codelijsten'!$BQ$4:''$BQ$6</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$BS$4:''$BS$181</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
       <formula1>-146096</formula1>
@@ -51654,13 +51654,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>'Codelijsten'!$BU$4:''$BU$6</formula1>
+      <formula1>'Codelijsten'!$BU$4:$BU$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$BW$4:''$BW$1003</formula1>
+      <formula1>'Codelijsten'!$BW$4:$BW$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$BY$4:''$BY$68</formula1>
+      <formula1>'Codelijsten'!$BY$4:$BY$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
@@ -51672,7 +51672,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$CA$4:''$CA$86</formula1>
+      <formula1>'Codelijsten'!$CA$4:$CA$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -6062,7 +6062,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:14.203669</t>
+    <t>2025-09-22 11:00:02.609721</t>
   </si>
   <si>
     <t>version</t>
@@ -6080,7 +6080,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -6062,13 +6062,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:02.609721</t>
+    <t>2025-09-24 17:44:32.629288</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -6062,13 +6062,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:32.629288</t>
+    <t>2025-09-24 22:46:46.518596</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_geologie_template.xlsx
+++ b/templates/productie/productie_geologie_template.xlsx
@@ -6068,7 +6068,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:26.670503</t>
+    <t>2026-01-01 02:16:26.812661</t>
   </si>
   <si>
     <t>version</t>
